--- a/networks.xlsx
+++ b/networks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seva\Desktop\practika tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8168BF67-7038-4EB2-9479-D0E9D2A06978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE291049-4F37-404E-A4E1-09C02434D085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{EF6EE3D3-287C-4A90-9A9F-3807408B3B8B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>200.19.00|</t>
   </si>
@@ -181,6 +181,25 @@
   </si>
   <si>
     <t>10.19.248.0/30</t>
+  </si>
+  <si>
+    <t>10.19.252.0/30</t>
+  </si>
+  <si>
+    <t>Для GRE от R15 от до R22</t>
+  </si>
+  <si>
+    <t>10.19.254.0/30</t>
+  </si>
+  <si>
+    <t>Главный филиал 
+локальная сеть</t>
+  </si>
+  <si>
+    <t>Первый филиал локальная сеть</t>
+  </si>
+  <si>
+    <t>Для GRE от R16 от до R22</t>
   </si>
 </sst>
 </file>
@@ -550,16 +569,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171D6AAF-113B-4C95-A19E-1A6C5985CDD0}">
-  <dimension ref="B4:K30"/>
+  <dimension ref="B4:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -764,8 +783,11 @@
       <c r="F27" s="1">
         <v>1101</v>
       </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>20</v>
       </c>
@@ -774,6 +796,9 @@
       </c>
       <c r="F28" s="1">
         <v>1110</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
@@ -808,12 +833,35 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
     </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>49</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>51</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="I29:K29"/>
     <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I32:K32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/networks.xlsx
+++ b/networks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seva\Desktop\practika tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE291049-4F37-404E-A4E1-09C02434D085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D74D508-DFE9-417E-B52B-F143C7C62E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{EF6EE3D3-287C-4A90-9A9F-3807408B3B8B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>200.19.00|</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>Для GRE от R16 от до R22</t>
+  </si>
+  <si>
+    <t>Второй филиал локальная сеть</t>
   </si>
 </sst>
 </file>
@@ -572,7 +575,7 @@
   <dimension ref="B4:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,6 +774,9 @@
       </c>
       <c r="F26" s="1">
         <v>1100</v>
+      </c>
+      <c r="H26" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">

--- a/networks.xlsx
+++ b/networks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seva\Desktop\practika tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D74D508-DFE9-417E-B52B-F143C7C62E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926AC974-C356-4519-A62E-AE36B1384C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{EF6EE3D3-287C-4A90-9A9F-3807408B3B8B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>200.19.00|</t>
   </si>
@@ -203,6 +203,9 @@
   </si>
   <si>
     <t>Второй филиал локальная сеть</t>
+  </si>
+  <si>
+    <t>Админская сеть в главном офисе</t>
   </si>
 </sst>
 </file>
@@ -575,13 +578,13 @@
   <dimension ref="B4:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="29" customWidth="1"/>
+    <col min="8" max="8" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -763,6 +766,9 @@
       </c>
       <c r="F25" s="1">
         <v>1011</v>
+      </c>
+      <c r="H25" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">

--- a/networks.xlsx
+++ b/networks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seva\Desktop\practika tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926AC974-C356-4519-A62E-AE36B1384C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C3135D-9022-4771-8F6F-C2D38297690D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{EF6EE3D3-287C-4A90-9A9F-3807408B3B8B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
   <si>
     <t>200.19.00|</t>
   </si>
@@ -205,14 +205,26 @@
     <t>Второй филиал локальная сеть</t>
   </si>
   <si>
-    <t>Админская сеть в главном офисе</t>
+    <t>Первый филиал административная сеть</t>
+  </si>
+  <si>
+    <t>vlan 100</t>
+  </si>
+  <si>
+    <t>vlan 10</t>
+  </si>
+  <si>
+    <t>административная сеть в главном офисе</t>
+  </si>
+  <si>
+    <t>Второй филиал административная сеть</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,16 +240,55 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -245,11 +296,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -261,9 +330,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="2" builtinId="27"/>
+    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -577,14 +654,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171D6AAF-113B-4C95-A19E-1A6C5985CDD0}">
   <dimension ref="B4:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="30.5703125" customWidth="1"/>
+    <col min="8" max="8" width="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -745,6 +822,9 @@
       <c r="F23" s="1">
         <v>1001</v>
       </c>
+      <c r="H23" s="8" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
@@ -756,6 +836,12 @@
       <c r="F24" s="1">
         <v>1010</v>
       </c>
+      <c r="H24" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
@@ -767,8 +853,11 @@
       <c r="F25" s="1">
         <v>1011</v>
       </c>
-      <c r="H25" t="s">
-        <v>56</v>
+      <c r="H25" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I25" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
@@ -781,7 +870,7 @@
       <c r="F26" s="1">
         <v>1100</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="9" t="s">
         <v>55</v>
       </c>
     </row>
@@ -795,8 +884,11 @@
       <c r="F27" s="1">
         <v>1101</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="7" t="s">
         <v>53</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -809,10 +901,12 @@
       <c r="F28" s="1">
         <v>1110</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I28" s="3"/>
+      <c r="I28" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
     </row>

--- a/networks.xlsx
+++ b/networks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seva\Desktop\practika tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C3135D-9022-4771-8F6F-C2D38297690D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA492C6-3A87-4209-BEDE-97A44292437D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{EF6EE3D3-287C-4A90-9A9F-3807408B3B8B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
   <si>
     <t>200.19.00|</t>
   </si>
@@ -218,13 +218,37 @@
   </si>
   <si>
     <t>Второй филиал административная сеть</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> сеть Huawei</t>
+  </si>
+  <si>
+    <t>200.200.19.0/24</t>
+  </si>
+  <si>
+    <t>Третий филиал локальная сеть</t>
+  </si>
+  <si>
+    <t>Третий филиал административная сеть</t>
+  </si>
+  <si>
+    <t>10.19.254.192/30</t>
+  </si>
+  <si>
+    <t>Для GRE от R23 до R15</t>
+  </si>
+  <si>
+    <t>Для GRE от R23 до R16</t>
+  </si>
+  <si>
+    <t>10.19.254.128/30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,8 +288,25 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,8 +328,19 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -311,14 +363,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -327,16 +390,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="5" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
+    <cellStyle name="40% — акцент2" xfId="5" builtinId="35"/>
+    <cellStyle name="Вывод" xfId="4" builtinId="21"/>
     <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Плохой" xfId="2" builtinId="27"/>
@@ -652,19 +719,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171D6AAF-113B-4C95-A19E-1A6C5985CDD0}">
-  <dimension ref="B4:K32"/>
+  <dimension ref="A4:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
     <col min="8" max="8" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -675,7 +742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -686,7 +753,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -697,7 +764,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -708,12 +775,22 @@
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>4</v>
       </c>
@@ -724,7 +801,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>5</v>
       </c>
@@ -735,7 +812,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>6</v>
       </c>
@@ -790,7 +867,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>13</v>
       </c>
@@ -799,6 +876,9 @@
       </c>
       <c r="F21" s="2" t="s">
         <v>37</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
@@ -811,6 +891,9 @@
       <c r="F22" s="1">
         <v>1000</v>
       </c>
+      <c r="H22" s="10" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
@@ -822,7 +905,7 @@
       <c r="F23" s="1">
         <v>1001</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="7" t="s">
         <v>60</v>
       </c>
     </row>
@@ -836,7 +919,7 @@
       <c r="F24" s="1">
         <v>1010</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="6" t="s">
         <v>56</v>
       </c>
       <c r="I24" t="s">
@@ -853,7 +936,7 @@
       <c r="F25" s="1">
         <v>1011</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="5" t="s">
         <v>59</v>
       </c>
       <c r="I25" t="s">
@@ -870,7 +953,7 @@
       <c r="F26" s="1">
         <v>1100</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="H26" s="8" t="s">
         <v>55</v>
       </c>
     </row>
@@ -884,7 +967,7 @@
       <c r="F27" s="1">
         <v>1101</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="6" t="s">
         <v>53</v>
       </c>
       <c r="I27" s="3" t="s">
@@ -901,7 +984,7 @@
       <c r="F28" s="1">
         <v>1110</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="4" t="s">
         <v>52</v>
       </c>
       <c r="I28" s="3" t="s">
@@ -923,44 +1006,67 @@
       <c r="H29" t="s">
         <v>47</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H30" t="s">
         <v>48</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="I30" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H31" t="s">
         <v>49</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I31" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H32" t="s">
         <v>51</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="I32" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+    </row>
+    <row r="33" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>65</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+    </row>
+    <row r="34" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H34" t="s">
+        <v>68</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="I29:K29"/>
     <mergeCell ref="I30:K30"/>
     <mergeCell ref="I31:K31"/>
